--- a/Arquitetura de Dados/Trabalho 02 - Dimensional/Trabalho 02 - Modelagem Dimensional Dindin Agora.xlsx
+++ b/Arquitetura de Dados/Trabalho 02 - Dimensional/Trabalho 02 - Modelagem Dimensional Dindin Agora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Speca\Estudos\Data Science\FIAP - MBA IA e ML\01 - Arquitetura de Dados\Trabalhos\Trabalho 02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Speca\Projects\fiap-ai\mba_IA_ML-proj_int-grupoC\Arquitetura de Dados\Trabalho 02 - Dimensional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529B2379-4017-4366-AE1C-9DD5CA0101E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E61574B-3FB5-4DE6-BC65-B8608E834907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Análise do Faturamento" sheetId="1" r:id="rId1"/>
@@ -936,6 +936,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -991,12 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,7 +1508,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1524,7 +1524,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="7" t="s">
         <v>62</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="7" t="s">
         <v>64</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="7" t="s">
         <v>77</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="7"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1588,7 +1588,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="7"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1597,7 +1597,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1606,7 +1606,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1635,7 +1635,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="48" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1655,11 +1655,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1673,7 +1673,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>65</v>
@@ -1707,7 +1707,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>85</v>
@@ -1723,13 +1723,13 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="40" t="s">
         <v>118</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1737,55 +1737,55 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1824,7 +1824,7 @@
       <c r="L27" s="38"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1854,7 +1854,7 @@
       <c r="L28" s="38"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
@@ -2013,7 +2013,7 @@
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="2" t="s">
         <v>67</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="2" t="s">
         <v>70</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2079,7 +2079,7 @@
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2092,7 +2092,7 @@
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2105,7 +2105,7 @@
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2118,7 +2118,7 @@
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2131,7 +2131,7 @@
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2144,7 +2144,7 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="49"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -2157,7 +2157,7 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="48"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="11" t="s">
         <v>69</v>
       </c>
@@ -2180,42 +2180,42 @@
         <v>141</v>
       </c>
       <c r="C47" s="33"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="56"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="1"/>
       <c r="C48" s="34"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="57"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="59"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
@@ -2223,14 +2223,14 @@
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="34"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="44"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
@@ -2259,11 +2259,11 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G12">
@@ -2290,7 +2290,7 @@
   <dimension ref="B3:P49"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:P49"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2301,10 +2301,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
@@ -2395,10 +2395,10 @@
       <c r="E13" s="1">
         <v>123</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="61"/>
       <c r="J13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2521,10 +2521,10 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="61"/>
       <c r="G25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2861,15 +2861,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010050A965446884BC4D9974278FF047A0CA" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="6f379d1ce443195081731e90b3b30922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbbe65cf-3c9d-4e1e-868c-8d6568e47527" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="193129f780a4fdda7a122d6bce0708ce" ns2:_="">
     <xsd:import namespace="cbbe65cf-3c9d-4e1e-868c-8d6568e47527"/>
@@ -3001,6 +2992,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF34B243-44A1-4083-89A9-F5629D0F74A7}">
   <ds:schemaRefs>
@@ -3011,14 +3011,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0C12A3-ABE1-457E-B7DD-9937F1A21C70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA465C73-0B7D-4FD2-93CA-D30AD7412532}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3034,4 +3026,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0C12A3-ABE1-457E-B7DD-9937F1A21C70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>